--- a/data/register.xlsx
+++ b/data/register.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c9ce61874d52413f/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{482CB507-1838-4427-B73A-A9A06F2D045B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43064042-63C8-4CA5-B42A-89F5259C6735}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{482CB507-1838-4427-B73A-A9A06F2D045B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBF3E1A6-3CB3-4000-948E-9087FEC37063}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="11835" xr2:uid="{58153E4C-7C40-4341-A140-CB078B3013C6}"/>
+    <workbookView xWindow="-15255" yWindow="4230" windowWidth="12855" windowHeight="11835" xr2:uid="{58153E4C-7C40-4341-A140-CB078B3013C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>user</t>
   </si>
@@ -102,13 +102,43 @@
   </si>
   <si>
     <t>worker2@heimdall.com.br</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>tecnico</t>
+  </si>
+  <si>
+    <t>gestor</t>
+  </si>
+  <si>
+    <t>contact_phone</t>
+  </si>
+  <si>
+    <t>(41)0000-0000</t>
+  </si>
+  <si>
+    <t>(55)0000-0000</t>
+  </si>
+  <si>
+    <t>(00)0000-0000</t>
+  </si>
+  <si>
+    <t>(13)0000-0000</t>
+  </si>
+  <si>
+    <t>(29)0000-0000</t>
+  </si>
+  <si>
+    <t>user_description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +150,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,9 +184,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -165,6 +204,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01020D36-4FA6-40D6-A9DF-31E43A992155}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,9 +539,13 @@
     <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="34.5703125" customWidth="1"/>
     <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,41 +553,57 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
         <v>12345</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
         <v>56789</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -548,13 +611,19 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -562,13 +631,19 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -576,13 +651,19 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -590,9 +671,15 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
         <v>15</v>
       </c>
     </row>

--- a/data/register.xlsx
+++ b/data/register.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c9ce61874d52413f/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios_GIT\HEINDALL\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="8_{482CB507-1838-4427-B73A-A9A06F2D045B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBF3E1A6-3CB3-4000-948E-9087FEC37063}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68C9953-1346-4EA4-ADEE-ED7D12E01112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15255" yWindow="4230" windowWidth="12855" windowHeight="11835" xr2:uid="{58153E4C-7C40-4341-A140-CB078B3013C6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{58153E4C-7C40-4341-A140-CB078B3013C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>user</t>
   </si>
@@ -132,6 +132,27 @@
   </si>
   <si>
     <t>user_description</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>empresa de teste 01</t>
+  </si>
+  <si>
+    <t>empresa de teste 02</t>
+  </si>
+  <si>
+    <t>gestor 1</t>
+  </si>
+  <si>
+    <t>gestor 2</t>
+  </si>
+  <si>
+    <t>tecnico TI</t>
+  </si>
+  <si>
+    <t>tecnico suporte</t>
   </si>
 </sst>
 </file>
@@ -204,10 +225,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,171 +544,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01020D36-4FA6-40D6-A9DF-31E43A992155}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.5546875" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>12345</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>56789</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{681BF58E-66B0-4250-A50F-7BBA9C5E96A7}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{647325B8-FF38-4C29-AE2B-FD95654B5226}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{C747D461-5A43-4EB8-ADA0-22A7FD721CF9}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{A90FF6C1-5E58-4AFB-B604-FB9F82389420}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{551385C2-A01D-42DE-87EC-B5447448CC95}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{8C807239-D107-4F33-8C06-659260933E6B}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{681BF58E-66B0-4250-A50F-7BBA9C5E96A7}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{647325B8-FF38-4C29-AE2B-FD95654B5226}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{C747D461-5A43-4EB8-ADA0-22A7FD721CF9}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{A90FF6C1-5E58-4AFB-B604-FB9F82389420}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{551385C2-A01D-42DE-87EC-B5447448CC95}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{8C807239-D107-4F33-8C06-659260933E6B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/data/register.xlsx
+++ b/data/register.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -534,32 +534,9 @@
         <v>tecnico</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>tecnico2</v>
-      </c>
-      <c r="B7" t="str">
-        <v>tecnico TI</v>
-      </c>
-      <c r="C7" t="str">
-        <v>worker2@heimdall.com.br</v>
-      </c>
-      <c r="D7" t="str">
-        <v>(41)0000-0000</v>
-      </c>
-      <c r="E7" t="str">
-        <v>worker2</v>
-      </c>
-      <c r="F7" t="str">
-        <v>funcionario</v>
-      </c>
-      <c r="G7" t="str">
-        <v>tecnico</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
   </ignoredErrors>
 </worksheet>
 </file>